--- a/Shiny/Dati/HPLC_3^2.xlsx
+++ b/Shiny/Dati/HPLC_3^2.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Camillo\GitHub\DoE_en\Shiny\Dati\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DoE\Shiny\Dati\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD60EB4C-77A7-4E62-9CA6-A218B939FBC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83CB8FD6-BF5C-468D-A0F3-13B62DA6DD75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{DED43AA6-F1D5-4554-9CF0-E9EE44628362}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{DED43AA6-F1D5-4554-9CF0-E9EE44628362}"/>
   </bookViews>
   <sheets>
     <sheet name="HPLC 3^2" sheetId="1" r:id="rId1"/>
+    <sheet name="Costruzione" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
   <si>
     <t>x1</t>
   </si>
@@ -46,10 +47,13 @@
     <t>y</t>
   </si>
   <si>
-    <t>temp</t>
+    <t>% A</t>
   </si>
   <si>
-    <t>% A</t>
+    <t>Temp</t>
+  </si>
+  <si>
+    <t>A</t>
   </si>
 </sst>
 </file>
@@ -270,49 +274,48 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -321,21 +324,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -353,7 +356,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -375,7 +378,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'HPLC 3^2'!$B$1</c:f>
+              <c:f>Costruzione!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -408,7 +411,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'HPLC 3^2'!$A$2:$A$10</c:f>
+              <c:f>Costruzione!$A$2:$A$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -444,7 +447,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'HPLC 3^2'!$B$2:$B$10</c:f>
+              <c:f>Costruzione!$B$2:$B$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -481,7 +484,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1D2F-48A6-9606-89D125B6E958}"/>
+              <c16:uniqueId val="{00000000-64D3-4F45-8B4E-0CA06E4CBDAD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1232,23 +1235,61 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>441960</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Grafico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{513C1724-F356-44EF-AF37-33FFCE429924}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>116205</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1">
+        <xdr:cNvPr id="4" name="TextBox 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C921CECF-5AB9-4AA8-9182-6751CDFF11C6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B14BCB23-9A0A-4F99-BB9F-1C181247A703}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1256,14 +1297,14 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4267200" y="0"/>
-          <a:ext cx="5724525" cy="762000"/>
+          <a:off x="3629025" y="276225"/>
+          <a:ext cx="10315575" cy="2506980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent5">
+          <a:schemeClr val="accent1">
             <a:lumMod val="20000"/>
             <a:lumOff val="80000"/>
           </a:schemeClr>
@@ -1295,60 +1336,242 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="1"/>
+            <a:t>Studio delle condizioni di separazione di due picchi in una</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="1" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="1"/>
+            <a:t>analisi HPLC</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
             <a:rPr lang="it-IT" sz="1100"/>
-            <a:t>Vedi descrizione</a:t>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100"/>
+            <a:t>Il problema: in un tracciato HPLC due picchi sono poco separati. Si vuole realizzare la separazione dei due picchi per potere quantificare con accuratezza le due molecole.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100"/>
+            <a:t>Lo studio del metodo mette in evidenza che i fattori influenzanti la separazione sono due: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>e la temperatura della colonna in gradi centigradi, X1, e </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100"/>
+            <a:t>la % di modificante organico </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(ACN)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100"/>
+            <a:t> X2.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100"/>
+            <a:t>La risposta Y considerata è la selettività HPLC (</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="el-GR" sz="1100">
+              <a:latin typeface="Lucida Sans Unicode" panose="020B0602030504020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Lucida Sans Unicode" panose="020B0602030504020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>α</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100"/>
+            <a:t>, fattore di ritenzione relativa) delle due molecole aventi fattori di ritenzione k1 e k2. L'obiettivo dello studio è di ottenere un valore di </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="el-GR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>α</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100">
+              <a:latin typeface="Lucida Sans Unicode" panose="020B0602030504020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Lucida Sans Unicode" panose="020B0602030504020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>≥</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100"/>
+            <a:t> 2.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100"/>
+            <a:t>Nel primo piano sperimentale il modello non è convalidato e dunque</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="it-IT" sz="1100" baseline="0"/>
-            <a:t> dataset HPLC 2^2+2</a:t>
-          </a:r>
+            <a:t> si deve ricorrere ad un modello quadratico (HPLC 3^2) che risolve i problemi di convalida e di previsione corretta delle condizioni sperimentali. Queste dunque possono essere ottimizzate usando il modello.</a:t>
+          </a:r>
+          <a:endParaRPr lang="it-IT" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100"/>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100"/>
+            <a:t>Fattori e livelli</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>X1: Temp,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>temperatura della</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> colonna</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100"/>
+            <a:t>20, 40, 60°C</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100"/>
+            <a:t>X2: A, % di f.m. A, 10, 20, 30%</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100"/>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
           <a:endParaRPr lang="it-IT" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>556260</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>251460</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Grafico 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83B11852-BBA5-73FF-FB44-7722C0B5BCB4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1644,231 +1867,450 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{958F8108-1173-4D0C-BB28-EE63F85D89FD}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="S18" sqref="S18"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="17" t="s">
+      <c r="C1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="D1" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="13" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="6">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
         <v>-1</v>
       </c>
       <c r="B2" s="1">
         <v>-1</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="5">
         <v>20</v>
       </c>
-      <c r="D2" s="18">
+      <c r="D2" s="17">
         <v>10</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="9">
         <v>0.82099999999999995</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="6">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
         <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>-1</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="5">
         <v>60</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3" s="17">
         <v>10</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="9">
         <v>1.056</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="6">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
         <v>-1</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <v>20</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="17">
         <v>30</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="9">
         <v>1.996</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="7">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
         <v>1</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="7">
         <v>1</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="6">
         <v>60</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="18">
         <v>30</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="10">
         <v>2.2309999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
         <v>-1</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <v>0</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>20</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="19">
         <v>20</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E6" s="20">
         <v>1.137</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="6">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
         <v>1</v>
       </c>
       <c r="B7" s="1">
         <v>0</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="5">
         <v>60</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="17">
         <v>20</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="9">
         <v>1.3720000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="6">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
         <v>0</v>
       </c>
       <c r="B8" s="1">
         <v>-1</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="5">
         <v>40</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="17">
         <v>10</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="9">
         <v>0.88400000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="6">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
         <v>0</v>
       </c>
       <c r="B9" s="1">
         <v>1</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="5">
         <v>40</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="17">
         <v>30</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="9">
         <v>2.0590000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="7">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
         <v>0</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="7">
         <v>0</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="6">
         <v>40</v>
       </c>
-      <c r="D10" s="19">
+      <c r="D10" s="18">
         <v>20</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="10">
         <v>1.3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
         <v>0</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="4">
         <v>0</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <v>40</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D12" s="19">
         <v>20</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="14">
         <v>1.22</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="7">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
         <v>0</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="7">
         <v>0</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="6">
         <v>40</v>
       </c>
-      <c r="D13" s="19">
+      <c r="D13" s="18">
         <v>20</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="8">
         <v>1.165</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54ED44B8-036D-4A6D-8923-71BBF787F0D3}">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="S22" sqref="S22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="C2" s="5">
+        <v>20</v>
+      </c>
+      <c r="D2" s="17">
+        <v>10</v>
+      </c>
+      <c r="E2" s="9">
+        <v>0.82099999999999995</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="C3" s="5">
+        <v>60</v>
+      </c>
+      <c r="D3" s="17">
+        <v>10</v>
+      </c>
+      <c r="E3" s="9">
+        <v>1.056</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5">
+        <v>20</v>
+      </c>
+      <c r="D4" s="17">
+        <v>30</v>
+      </c>
+      <c r="E4" s="9">
+        <v>1.996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>1</v>
+      </c>
+      <c r="B5" s="7">
+        <v>1</v>
+      </c>
+      <c r="C5" s="6">
+        <v>60</v>
+      </c>
+      <c r="D5" s="18">
+        <v>30</v>
+      </c>
+      <c r="E5" s="10">
+        <v>2.2309999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>-1</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3">
+        <v>20</v>
+      </c>
+      <c r="D6" s="19">
+        <v>20</v>
+      </c>
+      <c r="E6" s="20">
+        <v>1.137</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+      <c r="C7" s="5">
+        <v>60</v>
+      </c>
+      <c r="D7" s="17">
+        <v>20</v>
+      </c>
+      <c r="E7" s="9">
+        <v>1.3720000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>0</v>
+      </c>
+      <c r="B8" s="1">
+        <v>-1</v>
+      </c>
+      <c r="C8" s="5">
+        <v>40</v>
+      </c>
+      <c r="D8" s="17">
+        <v>10</v>
+      </c>
+      <c r="E8" s="9">
+        <v>0.88400000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" s="5">
+        <v>40</v>
+      </c>
+      <c r="D9" s="17">
+        <v>30</v>
+      </c>
+      <c r="E9" s="9">
+        <v>2.0590000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>0</v>
+      </c>
+      <c r="B10" s="7">
+        <v>0</v>
+      </c>
+      <c r="C10" s="6">
+        <v>40</v>
+      </c>
+      <c r="D10" s="18">
+        <v>20</v>
+      </c>
+      <c r="E10" s="10">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>0</v>
+      </c>
+      <c r="B12" s="4">
+        <v>0</v>
+      </c>
+      <c r="C12" s="3">
+        <v>40</v>
+      </c>
+      <c r="D12" s="19">
+        <v>20</v>
+      </c>
+      <c r="E12" s="14">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <v>0</v>
+      </c>
+      <c r="B13" s="7">
+        <v>0</v>
+      </c>
+      <c r="C13" s="6">
+        <v>40</v>
+      </c>
+      <c r="D13" s="18">
+        <v>20</v>
+      </c>
+      <c r="E13" s="8">
+        <v>1.165</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
